--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R124" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="R133" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="R142" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="R124" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R133" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R142" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="R17" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="R23" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="R32" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="R40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="R49" t="n">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="R58" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="R66" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="R74" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="R78" t="n">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="R89" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="R97" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="R106" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="R115" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="R124" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="R133" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="R142" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="R17" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="R23" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="R32" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>18</v>
+      </c>
+      <c r="R40" t="n">
         <v>15</v>
-      </c>
-      <c r="R40" t="n">
-        <v>7</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="R49" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R58" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="R66" t="n">
         <v>8</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="R74" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="R78" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="R89" t="n">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="R97" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="R106" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="R115" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="R124" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="R133" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="R142" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="R17" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="R23" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="R32" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="R40" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="R49" t="n">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="R58" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="R66" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="R74" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="R78" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="R89" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="R97" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="R106" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="R115" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="R124" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="R133" t="n">
         <v>44</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="R142" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="R3" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R10" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="R17" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="R23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="R32" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="R49" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="R74" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R78" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R89" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="R97" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="R106" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="R115" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="R124" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="R133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="R142" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="R3" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="R10" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R17" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="R23" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="R32" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="R49" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="R74" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="R78" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R89" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="R97" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R106" t="n">
         <v>22</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="R115" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R124" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="R133" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="R142" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="R3" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="R17" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="R32" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="R40" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="R49" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="R66" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="R74" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="R78" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="R89" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="R97" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="R106" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="R115" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="R124" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="R133" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="R142" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="R3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="R10" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="R23" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="R32" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="R40" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="R49" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="R58" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R66" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="R74" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R78" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="R89" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="R97" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="R106" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="R115" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="R124" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="R133" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="R142" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="R3" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="R10" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="R17" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="R23" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="R32" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="R66" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="R74" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="R78" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="R89" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="R97" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R106" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
+        <v>17</v>
+      </c>
+      <c r="R115" t="n">
         <v>7</v>
-      </c>
-      <c r="R115" t="n">
-        <v>6</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="R124" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="R133" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="R3" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R10" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="R17" t="n">
         <v>7</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R32" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="R40" t="n">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="R49" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="R58" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="R66" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R74" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="R78" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="R89" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="R97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="R106" t="n">
         <v>3</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R115" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="R124" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="R133" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="R142" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="R3" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="R23" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="R32" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="R40" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="R49" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="R58" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="R66" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="R74" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="R78" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="R89" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="R97" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="R106" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="R115" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R124" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R133" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R142" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="R17" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="R32" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="R40" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="R49" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R58" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="R66" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R74" t="n">
         <v>2</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R78" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="R97" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="R106" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="R115" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="R124" t="n">
         <v>5</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="R133" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R142" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="R3" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="R10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="R23" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="R32" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="R40" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R58" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="R66" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="R74" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="R78" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="R89" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R97" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="R106" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="R115" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="R124" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R133" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="R142" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R10" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="R32" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="R40" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="R49" t="n">
         <v>5</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="R58" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="R66" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4838,7 +4838,7 @@
         <v>44</v>
       </c>
       <c r="R74" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="R78" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="R97" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="R106" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R115" t="n">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="R124" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="R133" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="R142" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="R10" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="R17" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="R23" t="n">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="R32" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="R40" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R58" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="R66" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="R74" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="R78" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="R89" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="R97" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="R106" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="R115" t="n">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="R124" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="R133" t="n">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="R142" t="n">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="R10" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="R23" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="R32" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="R49" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="R58" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="R66" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="R74" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="R78" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="R89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="R97" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="R106" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="R115" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="R124" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="R133" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="R142" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="R23" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R32" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R49" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R58" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R66" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="R74" t="n">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="R78" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="R89" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R97" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>46</v>
       </c>
       <c r="R106" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="R115" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="R124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="R133" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="R142" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="R10" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="R17" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="R32" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="R40" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R49" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="R58" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="R66" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="R74" t="n">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="R78" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="R89" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R97" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="R106" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="R115" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="R124" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="R133" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8824,7 +8824,7 @@
         <v>70</v>
       </c>
       <c r="R142" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="R10" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="R23" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="R40" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="R49" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="R74" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="R78" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="R89" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="R97" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="R106" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="R115" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="R124" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R133" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="R142" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="R10" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="R40" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="R58" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R66" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="R74" t="n">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="R78" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="R89" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="R97" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="R106" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="R115" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="R124" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R133" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R142" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="R10" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="R17" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="R23" t="n">
         <v>16</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="R40" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="R49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="R58" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="R74" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="R78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="R89" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6176,7 +6176,7 @@
         <v>24</v>
       </c>
       <c r="R97" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R106" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="R115" t="n">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="R124" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="R133" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="R142" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="R17" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="R40" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="R49" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="R58" t="n">
         <v>7</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="R66" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="R74" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="R78" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="R89" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="R97" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="R106" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="R115" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="R124" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R133" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="R142" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="R3" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="R10" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="R17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
@@ -2351,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="R32" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="R40" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3369,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="R49" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="R58" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -4379,10 +4379,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="R66" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4835,10 +4835,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="R74" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="R78" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="R89" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="R97" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="R106" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="R115" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7729,10 +7729,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="R124" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R133" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8821,10 +8821,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="R142" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>

--- a/testing_output.xlsx
+++ b/testing_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V151"/>
+  <dimension ref="A1:W151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,7 +519,7 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Infrastructure Values</t>
+          <t>Switch Values</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
@@ -530,6 +530,11 @@
       <c r="V1" t="inlineStr">
         <is>
           <t>Signal Values</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>RxR Values</t>
         </is>
       </c>
     </row>
@@ -569,7 +574,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G001</t>
         </is>
       </c>
       <c r="M2" t="b">
@@ -594,6 +599,7 @@
       <c r="V2" t="b">
         <v>0</v>
       </c>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -637,7 +643,11 @@
           <t>Left</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
@@ -651,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -664,6 +674,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -701,7 +712,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G003</t>
         </is>
       </c>
       <c r="M4" t="b">
@@ -724,6 +735,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -759,7 +771,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="b">
         <v>0</v>
@@ -778,6 +794,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -813,7 +830,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="b">
         <v>0</v>
@@ -832,6 +853,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -867,7 +889,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="b">
         <v>0</v>
@@ -886,6 +912,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -921,7 +948,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="b">
         <v>0</v>
@@ -940,6 +971,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -977,7 +1009,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G008</t>
         </is>
       </c>
       <c r="M9" t="b">
@@ -1000,6 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1043,7 +1076,11 @@
           <t>Left</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M10" t="b">
         <v>0</v>
       </c>
@@ -1057,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1070,6 +1107,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1107,7 +1145,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G010</t>
         </is>
       </c>
       <c r="M11" t="b">
@@ -1130,6 +1168,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1165,7 +1204,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="b">
         <v>0</v>
@@ -1184,6 +1227,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1219,7 +1263,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>G012</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="b">
         <v>0</v>
@@ -1240,6 +1288,7 @@
       <c r="V13" t="b">
         <v>0</v>
       </c>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1279,7 +1328,11 @@
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>G013</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
         <v>0</v>
@@ -1300,6 +1353,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1335,7 +1389,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="b">
         <v>0</v>
@@ -1354,6 +1412,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1391,7 +1450,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G015</t>
         </is>
       </c>
       <c r="M16" t="b">
@@ -1414,6 +1473,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1457,7 +1517,11 @@
           <t>Both</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M17" t="b">
         <v>0</v>
       </c>
@@ -1471,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1484,6 +1548,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1521,7 +1586,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G017</t>
         </is>
       </c>
       <c r="M18" t="b">
@@ -1544,6 +1609,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1579,7 +1645,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="b">
         <v>0</v>
@@ -1598,6 +1668,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1637,7 +1708,11 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="b">
         <v>0</v>
@@ -1651,13 +1726,14 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="b">
-        <v>0</v>
-      </c>
+      <c r="T20" t="inlineStr"/>
       <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="inlineStr"/>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1693,7 +1769,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="b">
         <v>0</v>
@@ -1712,6 +1792,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1749,7 +1830,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G021</t>
         </is>
       </c>
       <c r="M22" t="b">
@@ -1772,6 +1853,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1815,7 +1897,11 @@
           <t>Both</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
@@ -1829,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -1842,6 +1928,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1879,7 +1966,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G023</t>
         </is>
       </c>
       <c r="M24" t="b">
@@ -1902,6 +1989,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1937,7 +2025,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="b">
         <v>0</v>
@@ -1956,6 +2048,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1991,7 +2084,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="b">
         <v>0</v>
@@ -2010,6 +2107,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2045,7 +2143,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="b">
         <v>0</v>
@@ -2064,6 +2166,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2099,7 +2202,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="b">
         <v>0</v>
@@ -2118,6 +2225,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2157,7 +2265,11 @@
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>G028</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="b">
         <v>0</v>
@@ -2178,6 +2290,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2213,7 +2326,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>G029</t>
+        </is>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="b">
         <v>0</v>
@@ -2234,6 +2351,7 @@
       <c r="V30" t="b">
         <v>0</v>
       </c>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2271,7 +2389,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G030</t>
         </is>
       </c>
       <c r="M31" t="b">
@@ -2294,6 +2412,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2337,7 +2456,11 @@
           <t>Left</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M32" t="b">
         <v>0</v>
       </c>
@@ -2351,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -2364,6 +2487,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2401,7 +2525,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G032</t>
         </is>
       </c>
       <c r="M33" t="b">
@@ -2424,6 +2548,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2459,7 +2584,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="b">
         <v>0</v>
@@ -2478,6 +2607,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2513,7 +2643,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="b">
         <v>0</v>
@@ -2532,6 +2666,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2567,7 +2702,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="b">
         <v>0</v>
@@ -2586,6 +2725,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2625,7 +2765,11 @@
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="b">
         <v>0</v>
@@ -2644,6 +2788,7 @@
         <v>1</v>
       </c>
       <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2683,7 +2828,11 @@
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="b">
         <v>0</v>
@@ -2702,6 +2851,7 @@
         <v>1</v>
       </c>
       <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2743,7 +2893,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G038</t>
         </is>
       </c>
       <c r="M39" t="b">
@@ -2766,6 +2916,7 @@
         <v>1</v>
       </c>
       <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2809,7 +2960,11 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M40" t="b">
         <v>0</v>
       </c>
@@ -2823,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -2836,6 +2991,7 @@
         <v>1</v>
       </c>
       <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2877,7 +3033,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G040</t>
         </is>
       </c>
       <c r="M41" t="b">
@@ -2900,6 +3056,7 @@
         <v>1</v>
       </c>
       <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2939,7 +3096,11 @@
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="b">
         <v>0</v>
@@ -2958,6 +3119,7 @@
         <v>1</v>
       </c>
       <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2997,7 +3159,11 @@
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="b">
         <v>0</v>
@@ -3016,6 +3182,7 @@
         <v>1</v>
       </c>
       <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3055,7 +3222,11 @@
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="b">
         <v>0</v>
@@ -3074,6 +3245,7 @@
         <v>1</v>
       </c>
       <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3113,7 +3285,11 @@
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="b">
         <v>0</v>
@@ -3132,6 +3308,7 @@
         <v>1</v>
       </c>
       <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3171,7 +3348,11 @@
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="b">
         <v>0</v>
@@ -3190,6 +3371,7 @@
         <v>1</v>
       </c>
       <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3229,7 +3411,11 @@
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="b">
         <v>0</v>
@@ -3248,6 +3434,7 @@
         <v>1</v>
       </c>
       <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3289,7 +3476,7 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G047</t>
         </is>
       </c>
       <c r="M48" t="b">
@@ -3312,6 +3499,7 @@
         <v>1</v>
       </c>
       <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3355,7 +3543,11 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M49" t="b">
         <v>0</v>
       </c>
@@ -3369,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -3382,6 +3574,7 @@
         <v>1</v>
       </c>
       <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3423,7 +3616,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G049</t>
         </is>
       </c>
       <c r="M50" t="b">
@@ -3446,6 +3639,7 @@
         <v>1</v>
       </c>
       <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3485,7 +3679,11 @@
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="b">
         <v>0</v>
@@ -3504,6 +3702,7 @@
         <v>1</v>
       </c>
       <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3543,7 +3742,11 @@
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="b">
         <v>0</v>
@@ -3562,6 +3765,7 @@
         <v>1</v>
       </c>
       <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3601,7 +3805,11 @@
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="b">
         <v>0</v>
@@ -3620,6 +3828,7 @@
         <v>1</v>
       </c>
       <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3659,7 +3868,11 @@
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="b">
         <v>0</v>
@@ -3678,6 +3891,7 @@
         <v>1</v>
       </c>
       <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3717,7 +3931,11 @@
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="b">
         <v>0</v>
@@ -3736,6 +3954,7 @@
         <v>1</v>
       </c>
       <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3775,7 +3994,11 @@
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="b">
         <v>0</v>
@@ -3794,6 +4017,7 @@
         <v>1</v>
       </c>
       <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3835,7 +4059,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G056</t>
         </is>
       </c>
       <c r="M57" t="b">
@@ -3858,6 +4082,7 @@
         <v>1</v>
       </c>
       <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3901,7 +4126,11 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>G057</t>
+        </is>
+      </c>
       <c r="M58" t="b">
         <v>0</v>
       </c>
@@ -3915,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -3930,6 +4159,7 @@
         <v>1</v>
       </c>
       <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3967,7 +4197,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G058</t>
         </is>
       </c>
       <c r="M59" t="b">
@@ -3990,6 +4220,7 @@
         <v>0</v>
       </c>
       <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4025,7 +4256,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="b">
         <v>0</v>
@@ -4044,6 +4279,7 @@
         <v>0</v>
       </c>
       <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4079,7 +4315,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="b">
         <v>0</v>
@@ -4098,6 +4338,7 @@
         <v>0</v>
       </c>
       <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4133,7 +4374,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="b">
         <v>0</v>
@@ -4152,6 +4397,7 @@
         <v>0</v>
       </c>
       <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4187,7 +4433,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="b">
         <v>0</v>
@@ -4206,6 +4456,7 @@
         <v>0</v>
       </c>
       <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4245,7 +4496,11 @@
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>G063</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="b">
         <v>0</v>
@@ -4266,6 +4521,7 @@
         <v>0</v>
       </c>
       <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4301,7 +4557,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>G064</t>
+        </is>
+      </c>
       <c r="M65" t="b">
         <v>0</v>
       </c>
@@ -4322,6 +4582,7 @@
         <v>0</v>
       </c>
       <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4365,7 +4626,11 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M66" t="b">
         <v>0</v>
       </c>
@@ -4379,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -4392,6 +4657,7 @@
         <v>0</v>
       </c>
       <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4427,7 +4693,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>G066</t>
+        </is>
+      </c>
       <c r="M67" t="b">
         <v>0</v>
       </c>
@@ -4448,6 +4718,7 @@
         <v>0</v>
       </c>
       <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4483,7 +4754,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="b">
         <v>0</v>
@@ -4502,6 +4777,7 @@
         <v>0</v>
       </c>
       <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4537,7 +4813,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="b">
         <v>0</v>
@@ -4556,6 +4836,7 @@
         <v>0</v>
       </c>
       <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4591,7 +4872,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="b">
         <v>0</v>
@@ -4610,6 +4895,7 @@
         <v>0</v>
       </c>
       <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4645,7 +4931,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="b">
         <v>0</v>
@@ -4664,6 +4954,7 @@
         <v>0</v>
       </c>
       <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4699,7 +4990,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="b">
         <v>0</v>
@@ -4718,6 +5013,7 @@
         <v>0</v>
       </c>
       <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4755,7 +5051,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G072</t>
         </is>
       </c>
       <c r="M73" t="b">
@@ -4778,6 +5074,7 @@
         <v>0</v>
       </c>
       <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4821,7 +5118,11 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M74" t="b">
         <v>0</v>
       </c>
@@ -4835,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -4848,6 +5149,7 @@
         <v>0</v>
       </c>
       <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4885,7 +5187,7 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G074</t>
         </is>
       </c>
       <c r="M75" t="b">
@@ -4908,6 +5210,7 @@
         <v>0</v>
       </c>
       <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4943,7 +5246,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="b">
         <v>0</v>
@@ -4962,6 +5269,7 @@
         <v>0</v>
       </c>
       <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4999,7 +5307,7 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G076</t>
         </is>
       </c>
       <c r="M77" t="b">
@@ -5024,6 +5332,7 @@
       <c r="V77" t="b">
         <v>0</v>
       </c>
+      <c r="W77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5067,7 +5376,11 @@
           <t>Both</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>G077</t>
+        </is>
+      </c>
       <c r="M78" t="b">
         <v>0</v>
       </c>
@@ -5081,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
@@ -5096,6 +5409,7 @@
         <v>0</v>
       </c>
       <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5133,7 +5447,7 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G078</t>
         </is>
       </c>
       <c r="M79" t="b">
@@ -5156,6 +5470,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5191,7 +5506,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="b">
         <v>0</v>
@@ -5210,6 +5529,7 @@
         <v>0</v>
       </c>
       <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5245,7 +5565,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="b">
         <v>0</v>
@@ -5264,6 +5588,7 @@
         <v>0</v>
       </c>
       <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5299,7 +5624,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="b">
         <v>0</v>
@@ -5318,6 +5647,7 @@
         <v>0</v>
       </c>
       <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5353,7 +5683,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="b">
         <v>0</v>
@@ -5372,6 +5706,7 @@
         <v>0</v>
       </c>
       <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5407,7 +5742,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="b">
         <v>0</v>
@@ -5426,6 +5765,7 @@
         <v>0</v>
       </c>
       <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5461,7 +5801,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="b">
         <v>0</v>
@@ -5480,6 +5824,7 @@
         <v>0</v>
       </c>
       <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5519,7 +5864,11 @@
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>G085</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="b">
         <v>0</v>
@@ -5540,6 +5889,7 @@
         <v>0</v>
       </c>
       <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5575,7 +5925,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>G086</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="b">
         <v>0</v>
@@ -5596,6 +5950,7 @@
       <c r="V87" t="b">
         <v>0</v>
       </c>
+      <c r="W87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5633,7 +5988,7 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G087</t>
         </is>
       </c>
       <c r="M88" t="b">
@@ -5656,6 +6011,7 @@
         <v>0</v>
       </c>
       <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5699,7 +6055,11 @@
           <t>Left</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M89" t="b">
         <v>0</v>
       </c>
@@ -5713,10 +6073,10 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -5726,6 +6086,7 @@
         <v>0</v>
       </c>
       <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5763,7 +6124,7 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G089</t>
         </is>
       </c>
       <c r="M90" t="b">
@@ -5786,6 +6147,7 @@
         <v>0</v>
       </c>
       <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5821,7 +6183,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="b">
         <v>0</v>
@@ -5840,6 +6206,7 @@
         <v>0</v>
       </c>
       <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5875,7 +6242,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="b">
         <v>0</v>
@@ -5894,6 +6265,7 @@
         <v>0</v>
       </c>
       <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5929,7 +6301,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="b">
         <v>0</v>
@@ -5948,6 +6324,7 @@
         <v>0</v>
       </c>
       <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5983,7 +6360,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="b">
         <v>0</v>
@@ -6002,6 +6383,7 @@
         <v>0</v>
       </c>
       <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6037,7 +6419,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="b">
         <v>0</v>
@@ -6056,6 +6442,7 @@
         <v>0</v>
       </c>
       <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6093,7 +6480,7 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G095</t>
         </is>
       </c>
       <c r="M96" t="b">
@@ -6116,6 +6503,7 @@
         <v>0</v>
       </c>
       <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6159,7 +6547,11 @@
           <t>Left</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M97" t="b">
         <v>0</v>
       </c>
@@ -6173,10 +6565,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -6186,6 +6578,7 @@
         <v>0</v>
       </c>
       <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6223,7 +6616,7 @@
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G097</t>
         </is>
       </c>
       <c r="M98" t="b">
@@ -6246,6 +6639,7 @@
         <v>0</v>
       </c>
       <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6281,7 +6675,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="b">
         <v>0</v>
@@ -6300,6 +6698,7 @@
         <v>0</v>
       </c>
       <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6335,7 +6734,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="b">
         <v>0</v>
@@ -6354,6 +6757,7 @@
         <v>0</v>
       </c>
       <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6389,7 +6793,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>G100</t>
+        </is>
+      </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="b">
         <v>0</v>
@@ -6410,6 +6818,7 @@
       <c r="V101" t="b">
         <v>0</v>
       </c>
+      <c r="W101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6445,7 +6854,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>G101</t>
+        </is>
+      </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="b">
         <v>0</v>
@@ -6466,6 +6879,7 @@
       <c r="V102" t="b">
         <v>0</v>
       </c>
+      <c r="W102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6501,7 +6915,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="b">
         <v>0</v>
@@ -6520,6 +6938,7 @@
         <v>0</v>
       </c>
       <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6555,7 +6974,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M104" t="inlineStr"/>
       <c r="N104" t="b">
         <v>0</v>
@@ -6574,6 +6997,7 @@
         <v>0</v>
       </c>
       <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6611,7 +7035,7 @@
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G104</t>
         </is>
       </c>
       <c r="M105" t="b">
@@ -6634,6 +7058,7 @@
         <v>0</v>
       </c>
       <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6677,7 +7102,11 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M106" t="b">
         <v>0</v>
       </c>
@@ -6691,10 +7120,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R106" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S106" t="n">
         <v>0</v>
@@ -6704,6 +7133,7 @@
         <v>0</v>
       </c>
       <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6741,7 +7171,7 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G106</t>
         </is>
       </c>
       <c r="M107" t="b">
@@ -6764,6 +7194,7 @@
         <v>0</v>
       </c>
       <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6799,7 +7230,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="b">
         <v>0</v>
@@ -6818,6 +7253,7 @@
         <v>0</v>
       </c>
       <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6857,7 +7293,11 @@
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="b">
         <v>0</v>
@@ -6871,13 +7311,14 @@
       <c r="Q109" t="inlineStr"/>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
-      <c r="T109" t="b">
-        <v>0</v>
-      </c>
+      <c r="T109" t="inlineStr"/>
       <c r="U109" t="b">
         <v>0</v>
       </c>
       <c r="V109" t="inlineStr"/>
+      <c r="W109" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6913,7 +7354,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="b">
         <v>0</v>
@@ -6932,6 +7377,7 @@
         <v>0</v>
       </c>
       <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6967,7 +7413,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="b">
         <v>0</v>
@@ -6986,6 +7436,7 @@
         <v>0</v>
       </c>
       <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7021,7 +7472,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="b">
         <v>0</v>
@@ -7040,6 +7495,7 @@
         <v>0</v>
       </c>
       <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7075,7 +7531,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="b">
         <v>0</v>
@@ -7094,6 +7554,7 @@
         <v>0</v>
       </c>
       <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7131,7 +7592,7 @@
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G113</t>
         </is>
       </c>
       <c r="M114" t="b">
@@ -7154,6 +7615,7 @@
         <v>0</v>
       </c>
       <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7197,7 +7659,11 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M115" t="b">
         <v>0</v>
       </c>
@@ -7211,10 +7677,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -7224,6 +7690,7 @@
         <v>0</v>
       </c>
       <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7261,7 +7728,7 @@
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G115</t>
         </is>
       </c>
       <c r="M116" t="b">
@@ -7284,6 +7751,7 @@
         <v>0</v>
       </c>
       <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7319,7 +7787,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="b">
         <v>0</v>
@@ -7338,6 +7810,7 @@
         <v>0</v>
       </c>
       <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7373,7 +7846,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="b">
         <v>0</v>
@@ -7392,6 +7869,7 @@
         <v>0</v>
       </c>
       <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7427,7 +7905,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="b">
         <v>0</v>
@@ -7446,6 +7928,7 @@
         <v>0</v>
       </c>
       <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7481,7 +7964,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="b">
         <v>0</v>
@@ -7500,6 +7987,7 @@
         <v>0</v>
       </c>
       <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7535,7 +8023,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="b">
         <v>0</v>
@@ -7554,6 +8046,7 @@
         <v>0</v>
       </c>
       <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7589,7 +8082,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="b">
         <v>0</v>
@@ -7608,6 +8105,7 @@
         <v>0</v>
       </c>
       <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7649,7 +8147,7 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G122</t>
         </is>
       </c>
       <c r="M123" t="b">
@@ -7672,6 +8170,7 @@
         <v>1</v>
       </c>
       <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7715,7 +8214,11 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M124" t="b">
         <v>0</v>
       </c>
@@ -7729,10 +8232,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="R124" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -7742,6 +8245,7 @@
         <v>1</v>
       </c>
       <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7783,7 +8287,7 @@
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G124</t>
         </is>
       </c>
       <c r="M125" t="b">
@@ -7806,6 +8310,7 @@
         <v>1</v>
       </c>
       <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7845,7 +8350,11 @@
         </is>
       </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="b">
         <v>0</v>
@@ -7864,6 +8373,7 @@
         <v>1</v>
       </c>
       <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7903,7 +8413,11 @@
         </is>
       </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="b">
         <v>0</v>
@@ -7922,6 +8436,7 @@
         <v>1</v>
       </c>
       <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7961,7 +8476,11 @@
         </is>
       </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="b">
         <v>0</v>
@@ -7980,6 +8499,7 @@
         <v>1</v>
       </c>
       <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8019,7 +8539,11 @@
         </is>
       </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="b">
         <v>0</v>
@@ -8038,6 +8562,7 @@
         <v>1</v>
       </c>
       <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8077,7 +8602,11 @@
         </is>
       </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="b">
         <v>0</v>
@@ -8096,6 +8625,7 @@
         <v>1</v>
       </c>
       <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8135,7 +8665,11 @@
         </is>
       </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="b">
         <v>0</v>
@@ -8154,6 +8688,7 @@
         <v>1</v>
       </c>
       <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8195,7 +8730,7 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G131</t>
         </is>
       </c>
       <c r="M132" t="b">
@@ -8218,6 +8753,7 @@
         <v>1</v>
       </c>
       <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8261,7 +8797,11 @@
           <t>Left</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M133" t="b">
         <v>0</v>
       </c>
@@ -8275,10 +8815,10 @@
         <v>0</v>
       </c>
       <c r="Q133" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
@@ -8288,6 +8828,7 @@
         <v>1</v>
       </c>
       <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8329,7 +8870,7 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G133</t>
         </is>
       </c>
       <c r="M134" t="b">
@@ -8352,6 +8893,7 @@
         <v>1</v>
       </c>
       <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8391,7 +8933,11 @@
         </is>
       </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="b">
         <v>0</v>
@@ -8410,6 +8956,7 @@
         <v>1</v>
       </c>
       <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8449,7 +8996,11 @@
         </is>
       </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="b">
         <v>0</v>
@@ -8468,6 +9019,7 @@
         <v>1</v>
       </c>
       <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8507,7 +9059,11 @@
         </is>
       </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="b">
         <v>0</v>
@@ -8526,6 +9082,7 @@
         <v>1</v>
       </c>
       <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8565,7 +9122,11 @@
         </is>
       </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="b">
         <v>0</v>
@@ -8584,6 +9145,7 @@
         <v>1</v>
       </c>
       <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8623,7 +9185,11 @@
         </is>
       </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="b">
         <v>0</v>
@@ -8642,6 +9208,7 @@
         <v>1</v>
       </c>
       <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8681,7 +9248,11 @@
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="b">
         <v>0</v>
@@ -8700,6 +9271,7 @@
         <v>1</v>
       </c>
       <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8741,7 +9313,7 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G140</t>
         </is>
       </c>
       <c r="M141" t="b">
@@ -8764,6 +9336,7 @@
         <v>1</v>
       </c>
       <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8807,7 +9380,11 @@
           <t>Right</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M142" t="b">
         <v>0</v>
       </c>
@@ -8821,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="R142" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
@@ -8834,6 +9411,7 @@
         <v>1</v>
       </c>
       <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8875,7 +9453,7 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Beacon Msg Here</t>
+          <t>G142</t>
         </is>
       </c>
       <c r="M143" t="b">
@@ -8898,6 +9476,7 @@
         <v>1</v>
       </c>
       <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8937,7 +9516,11 @@
         </is>
       </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="b">
         <v>0</v>
@@ -8956,6 +9539,7 @@
         <v>1</v>
       </c>
       <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8991,7 +9575,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="b">
         <v>0</v>
@@ -9010,6 +9598,7 @@
         <v>0</v>
       </c>
       <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9045,7 +9634,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="b">
         <v>0</v>
@@ -9064,6 +9657,7 @@
         <v>0</v>
       </c>
       <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9099,7 +9693,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="b">
         <v>0</v>
@@ -9118,6 +9716,7 @@
         <v>0</v>
       </c>
       <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9153,7 +9752,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="b">
         <v>0</v>
@@ -9172,6 +9775,7 @@
         <v>0</v>
       </c>
       <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9207,7 +9811,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="b">
         <v>0</v>
@@ -9226,6 +9834,7 @@
         <v>0</v>
       </c>
       <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9261,7 +9870,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+        </is>
+      </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="b">
         <v>0</v>
@@ -9280,6 +9893,7 @@
         <v>0</v>
       </c>
       <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9315,7 +9929,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>G150</t>
+        </is>
+      </c>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="b">
         <v>0</v>
@@ -9336,6 +9954,7 @@
       <c r="V151" t="b">
         <v>0</v>
       </c>
+      <c r="W151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
